--- a/accommodations_with_contacts.xlsx
+++ b/accommodations_with_contacts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/foresteria-valdese-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/foresteria-valdese-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,21 +488,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>info@foresteriavenezia.it</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">+39 041 2416238
-, +39 041 5286797
-                        </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>San Giovanni Novo Apartments</t>
+          <t>Casa Emimì</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -512,17 +510,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/san-giovanni-novo-apartments.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/casa-emimi.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>campo San Giovanni Novo 4384 - Piano terzo, Castello, 30122 Venice, Italy</t>
+          <t>2466 Calle de la Laca, San Polo, 30125 Venice, Italy</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>g.fabiodisconzi@gmail.com, emailcaterina.macaluso@libero.it</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,7 +532,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Casa Emimì</t>
+          <t>Suite Apartment San Marco 1825 - independent property</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -544,22 +542,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/casa-emimi.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/studio-apartment-san-marco-1825.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2466 Calle de la Laca, San Polo, 30125 Venice, Italy</t>
+          <t>Frezzaria 1825, San Marco, 30124 Venice, Italy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>studioapartment@1825.it</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">+39 324 992 2767
+          <t xml:space="preserve">+39 351 9368900     - , +39 351 9368900
 </t>
         </is>
       </c>
@@ -567,7 +565,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Suite Apartment San Marco 1825 - independent property</t>
+          <t>San Giovanni Novo Apartments</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -577,23 +575,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/studio-apartment-san-marco-1825.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/san-giovanni-novo-apartments.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Frezzaria 1825, San Marco, 30124 Venice, Italy</t>
+          <t>campo San Giovanni Novo 4384 - Piano terzo, Castello, 30122 Venice, Italy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>studioapartment@1825.it</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">+39 351 9368900
-, +39 351 9368900     - </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -610,7 +607,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/ostello-domus-civica.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/ostello-domus-civica.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -620,14 +617,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>detroit@enfold-startup.com, admiral@admiral.travel, LA@enfold-startup.com, info@domuscivica.com</t>
+          <t>detroit@enfold-startup.com, info@domuscivica.com, admiral@admiral.travel, LA@enfold-startup.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve">+39) 041 721103
-, +39 041 721 103
- , +39041721103
+, +39041721103
+ , +39 041 721 103
  , +39 041 721103
 											</t>
         </is>
@@ -636,7 +633,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FloVe' Rooms Venice</t>
+          <t>Domus Ciliota</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -646,29 +643,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/flove-rooms-venice.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/domus-ciliota.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fondamenta Contarini, 3009, Cannaregio, 30121 Venice, Italy</t>
+          <t>Calle delle Muneghe 2976, San Marco, San Marco, 30124 Venice, Italy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>info@ciliota.it</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>+39 041 5204888</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Suite Attico con Altana</t>
+          <t>FloVe' Rooms Venice</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,17 +675,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/attico-con-altana.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/flove-rooms-venice.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Calle del Parucchier, 6408 , Castello, 30122 Venice, Italy</t>
+          <t>Fondamenta Contarini, 3009, Cannaregio, 30121 Venice, Italy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>admiral@admiral.travel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/venice-sun-venezia1.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/venice-sun-venezia1.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -732,7 +729,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B&amp;B Le Terese</t>
+          <t>Emma's House</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -742,17 +739,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/le-terese.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/emmas-house-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Campiello Tron 1902 - Dorsoduro, Dorsoduro, 30123 Venice, Italy</t>
+          <t>1456 San Polo 1, San Polo, 30125 Venice, Italy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Italyinfo@leterese.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -764,7 +761,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cats and Antiques in Private Home Stay</t>
+          <t>Cà Del Tentor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -774,12 +771,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/cats-and-antiques-in-private-home-stay.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/ca-del-tentor.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2748 San Marco, San Marco, 30124 Venice, Italy</t>
+          <t>CALLE DEL TENTOR 1810/A, SANTA CROCE 30135, Santa Croce, 30135 Venice, Italy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -789,14 +786,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">+39 351 865 9090, +39 351 865 90 90
+</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sant'Agostin Apartment</t>
+          <t>Nausicaa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -806,30 +804,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/sant-39-agostin-apartment.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/veronese-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>San polo 2296 piano terra, San Polo, 30125 Venice, Italy</t>
+          <t>Castello 3828, Castello, 30122 Venice, Italy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>info@santagostin.com</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">+39 041 82 23 645
-    </t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sestiere Dorsoduro Venezia, a due passi dal ponte dei Pugni</t>
+          <t>Cats and Antiques in Private Home Stay</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -839,17 +836,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/sestiere-dorsoduro-venezia-a-due-passi-dal-ponte-dei-pugni.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/cats-and-antiques-in-private-home-stay.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3299 A - Calle della Madonna, Dorsoduro, 30123 Venice, Italy</t>
+          <t>2748 San Marco, San Marco, 30124 Venice, Italy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>admiral@admiral.travel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -861,7 +858,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Venice Luca's house</t>
+          <t>Alberghiera Venezia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -871,197 +868,203 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/venice-luca-39-s-house.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/alberghiera-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Castello, calle de la Malvasia Vechia 2272 4 piano, Castello, 30122 Venice, Italy</t>
+          <t>Cannaregio 539/b, Cannaregio, 30121 Venice, Italy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>INFO@VENICEVENICE.COM, RESTAURANT@VENICEVENICE.COM, RECRUITING@VENICEVENICE.COM, info@albergomarin.it, BOOKING@VENICEVENICE.COM, info@hotel-venezia.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Domus Ciliota</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Venice</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/it/domus-ciliota.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Calle delle Muneghe 2976, San Marco, San Marco, 30124 Venice, Italy</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>info@ciliota.it</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+39 041 5204888</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Emma's House</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Venice</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/it/emmas-house-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1456 San Polo 1, San Polo, 30125 Venice, Italy</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nausicaa</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Venice</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/it/veronese-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Castello 3828, Castello, 30122 Venice, Italy</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>info@sognidicristallo.it</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+39 041 4762538
-, +390414762538
-      </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Rio Venice</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Venice</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/it/rio-venice.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>FONDAMENTA DE CA RIZZI 312/A, Santa Croce, 30135 Venice, Italy</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>info@hotelriovenezia.com, RECRUITING@VENICEVENICE.COM</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+39 041 520 8222 </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Alberghiera Venezia</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Venice</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://www.booking.com/hotel/it/alberghiera-venezia.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Cannaregio 539/b, Cannaregio, 30121 Venice, Italy</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>BOOKING@VENICEVENICE.COM, RESTAURANT@VENICEVENICE.COM, RECRUITING@VENICEVENICE.COM, info@hotel-venezia.com, INFO@VENICEVENICE.COM</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+39 041 0970358
-, +39 041 5227678 - , +39 041985533
-, +39 041985490
+          <t>+39 041985533
+, +39 041 0970358
+, +39 041 5227678 - , +39 041718022  , +39 041718022     , +39 041985490
 , +39 041985490
 , +39 041 0970300
 , +39 041985533
+, +39 041718022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B&amp;B Le Terese</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/le-terese.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Campiello Tron 1902 - Dorsoduro, Dorsoduro, 30123 Venice, Italy</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Italyinfo@leterese.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Barbaria De Le Tole</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/barbaria-de-le-tole-venice.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Barbaria de le Tole, 6665-6673, Castello, 30122 Venice, Italy</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>info@arzanart.com, 2730info@atlanteproperties.comP.Iva, info@atlanteproperties.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 041 302 2730, +39 041 302 2730
+ , +39 335 458 832, +39 041 2689094
+, +39 335 458 832
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Venice Luca's house</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/venice-luca-39-s-house.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Castello, calle de la Malvasia Vechia 2272 4 piano, Castello, 30122 Venice, Italy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>info@hotelsanlucavenice.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 041 52 10 700
+, +39 041 29 60 833
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Zattere Design Loft R&amp;R</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/zattere-design-loft.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>945 Fondamenta Nani, Dorsoduro, 30123 Venice, Italy</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>booking@rentrelax.it, info@rentrelax.it</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 0415210659
+ , +39) 380 6816836 
+, +39 380 681 6836
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sestiere Dorsoduro Venezia, a due passi dal ponte dei Pugni</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/sestiere-dorsoduro-venezia-a-due-passi-dal-ponte-dei-pugni.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3299 A - Calle della Madonna, Dorsoduro, 30123 Venice, Italy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>admiral@admiral.travel</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Isa Sweet Home</t>
+          <t>Suite Attico con Altana</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1071,31 +1074,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/nina-sweet-home-venice.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/attico-con-altana.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Calle del Traghetto Santa Croce 589, Santa Croce, 30135 Venice, Italy</t>
+          <t>Calle del Parucchier, 6408 , Castello, 30122 Venice, Italy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>info@sweethomevenice.com</t>
+          <t>admiral@admiral.travel</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">+39 339 8037405 
-, +39 348 0034301 
-</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Charmsuite Palladio</t>
+          <t>Sant'Agostin Apartment</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1105,29 +1106,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/charmsuite-palladio.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/sant-39-agostin-apartment.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Calle del Gran 951, Giudecca, 30133 Venice, Italy</t>
+          <t>San polo 2296 piano terra, San Polo, 30125 Venice, Italy</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>admiral@admiral.travel</t>
+          <t>info@santagostin.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">+39 041 82 23 645
+    </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ca' Giusta</t>
+          <t>Isa Sweet Home</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1137,29 +1139,31 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/ca-39-giusta.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/nina-sweet-home-venice.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Calle Capuccine 6643, Castello , Venezia 6643, Castello, 30122 Venice, Italy</t>
+          <t>Calle del Traghetto Santa Croce 589, Santa Croce, 30135 Venice, Italy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>info@sweethomevenice.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">+39 348 0034301 
+, +39 339 8037405 
+</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ca' Venere Apartments Cannaregio</t>
+          <t>Ca' Giusta</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1169,17 +1173,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/ca-39-venere-apartments-cannaregio.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/ca-39-giusta.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cannaregio, Calle dei Ormesini 1449/A, Cannaregio, 30121 Venice, Italy</t>
+          <t>Calle Capuccine 6643, Castello , Venezia 6643, Castello, 30122 Venice, Italy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>info@gjusta.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1201,7 +1205,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/madonina.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/madonina.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1223,7 +1227,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cà Del Tentor</t>
+          <t>Palazzo DaPonte</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1233,30 +1237,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/ca-del-tentor.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/palazzo-daponte.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CALLE DEL TENTOR 1810/A, SANTA CROCE 30135, Santa Croce, 30135 Venice, Italy</t>
+          <t>Ramo Licini 5520, Castello, 30122 Venice, Italy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>info@hotelcontact.net</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">+39 351 865 9090, +39 351 865 90 90
-</t>
+          <t>+39 041 887 69287, +39 041 887 6928</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ca Donzela</t>
+          <t>Hotel Apostoli Garden</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1266,22 +1269,2169 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.booking.com/hotel/it/ca-donzela.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALctti6BsACAdICJGQyM2EzYjM5LTU2YzgtNGYyYi05NjU1LWIwYzVlNGNlNzUyNNgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=483d9ceed05300e5&amp;srepoch=1733696349&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+          <t>https://www.booking.com/hotel/it/apostoli-garden.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZW5pY2VIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKb09m6BsACAdICJGI4OWQwNWQzLTFjNDQtNDQ4MC05YmQ4LTJmZjlmNWJkNjkyN9gCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=4f241b4d854000ff&amp;srepoch=1733716380&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sestiere di san polo 976 San polo 976, San Polo, 30125 Venice, Italy</t>
+          <t>Sestiere Cannaregio 4531, Cannaregio, 30121 Venice, Italy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>info@hotelapostoligarden.com</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">+39 041 4067216
+   , +39 339 4659394
+  </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Arena Balcony</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/arena-balcony.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>46 Via Leoncino, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>direzione.allestimenti@arenadiverona.it, sicurezza@arenadiverona.it, Gasdiasovrintendenza@arenadiverona.it, ufficio.acquisti@arenadiverona.it, direzione.tecnica@arenadiverona.it, ufficio.stampa@arenadiverona.it, ufficio.amministrazione@arenadiverona.it, hr-department@arenadiverona.it, direzione.artistica@arenadiverona.it, Managersovrintendenza@arenadiverona.it, rpd@arenadiverona.it, info@arenadiverona.it, commerciale@arenadiverona.it, cs@arenadiverona.it, Trespidistefano.trespidi@arenadiverona.it, ufficio.personale@arenadiverona.it, biglietteria@arenadiverona.it</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Arte&amp;Musica</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/arte-amp-musica.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Via Carlo Cattaneo 27, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>info@artericambi.com, artemusica27@gmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 347 292 4205
+, +39 347 6083080
+, +39 335 1330087
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Arena Easy Suites Guesthouse</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/arean-easy-suites.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Piazza Pradaval 4, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>info@hotelsverona.it</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 045 569400
+, +39 045 577620
+, +39 328 933 0620, +39 045 569400
+ , +39 3665348917
+, +39 3665348917
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>StraVagante Hostel &amp; Rooms</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/stravagante-hostel.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Via Gianattilio dalla Bona 8, Borgo Milano - Stadio, 37138 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Giove Rooms</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/giove-rooms.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2 Via Giovanni Grioli, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>La Casa di Greta</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/la-casa-di-greta-verona.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9 Via Francesco Berni, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>admiral@admiral.travel</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 
+, +39 
+                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alatea Porta Nuova 20</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/alatea-porta-nuova-20.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20 Corso Porta Nuova Scala B, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6036338info@alateahomes.comCopyright</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>+39 334 6036338</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Casa Mazzini</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/casa-mazzini-verona1.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Vicolo Corte Spagnola 1, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Un Nido Sull'Arena - Royal Welcome</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/un-nido-sull-arena-royal-solution.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3 Via Pietro Frattini, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TEZONE SEVEN Apartments</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/tezone-seven-apartments.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Via Tezone, 7 Piano terra, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>tezoneseven@gmail.comVisita</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 331 257 8014
+, +39 339 891 9919
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Avenue Rooms</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/avenue-b-amp-b.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Corso Porta Nuova 127 Scala B, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>reception@theveronahotel.com, stravagante.hostel@aias-verona.it, Verona+39.045.569649+39.045.1887953stravagante.hostel@aias-verona.it, info@theveronahotel.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rosa Luxury Apartment</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/rosa-luxury-apartment.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5 Via Rosa, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hotel Leopardi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/leopardiverona.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Via Giacomo Leopardi 16, Borgo Milano - Stadio, 37138 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>leopardi@leopardi.vr.it, info@visitverona.it</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 045 8101444 
+, +39 045 8068680  </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sgarzarie Central Apartment</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/sgarzarie-central-apartment.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9 Corte Sgarzarie, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>San Giacomo Bed &amp; Breakfast</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/b-amp-b-san-giacomo.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>via Pigna 15, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>admiral@admiral.travel, info@sangiacomobb.it</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Antiche Colonne</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/antiche-colonne.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Via Dell'Artigliere 10, 37100 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Piccolo Bijou</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/piccolo-bijou.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7 Vicolo Calcirelli, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LA MANSARDA Modern House</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/la-mansarda-modern-house.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10 Via Rosolino Pilo, 37128 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>bb.mansarda@gmail.com</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 340 2840 792
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Giada Apartment Verona</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/giada-apartment-verona.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14 Piazza Renato Simoni scala E, piano 3, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 045 5118889   </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Maison de Amelie</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/maison-de-amelie.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Piazza Renato Simoni 14, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Al 18 Verona Rooms</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/al-18-verona-rooms.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Via Scrimiari, 18, 37129 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>reception@theveronahotel.com, info@theveronahotel.com</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mazzini Suite</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/mazzini-suite.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11/a Via Alberto Mario, Verona Historical Centre, 37121 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>admiral@admiral.travel</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Studio Campofiore</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/campofiore.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Via Campofiore 9, 37129 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Green Valley House</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/green-valley-house.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716819&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>50 Via della Valverde, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Grattacielo Suite</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/grattacielo-suite-verona.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF92ZXJvbmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuALS1tm6BsACAdICJGE3OTczNjliLTcwYzYtNDk1NS1hNjEwLWZkOGYzYjY4YTgwOdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=8f4d1c29462301c6&amp;srepoch=1733716820&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>30 Via Gian Matteo Giberti, Verona Historical Centre, 37122 Verona, Italy</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hotel Casa Del Pellegrino</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/casa-del-pellegrino.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Via Melchiorre Cesarotti 21, 35123 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>info@casadelpellegrino.com, infobasilica@santantonio.org</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39  049 7450166
+, +39 049 651333
+, +39 049 8239780
+, +39 049 8239711 </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Casa Santa Caterina e Sant Antonio</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/casa-santa-caterina-e-sant-antonio.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>247- 249 Via Cesare Battisti Check-in in via Cesare Battisti 247, 35121 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>info@casadelpellegrino.com, infobasilica@santantonio.org</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+393356795000
+, +39 049 8239711 , +393356795000
+, +39 049 8239780
+, +393356795000
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Amikales Rooms</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/amikales-rooms.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Via Sant'Agnese, 10 piano terra, 35139 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 3404634565
+ , +39 3404634565
+, +39 3317334560
+      </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Wine house</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/wine-house-padova.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>26 Corso Vittorio Emanuele II, 35123 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>5760505info@cantinabusodeibriganti.com, 5760505info@cantinabusodeibriganti.comContactsName, toinfo@vignaroda.com, info@cantinabusodeibriganti.comor</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 0425 410922, +39 347 768 5162 , +39 049 9940228 
+, +39 049 5211322 , +39 0499935072
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Padova Dream: flat in the heart of Padua</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/padova-dream-flat-in-the-heart-of-padua.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3 Vicolo Bovetta, 35137 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Casa Battisti</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/casa-battisti.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Via Cesare Battisti 227, 35121 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Casa Al Carmine</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/casa-al-carmine.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Via E. Vendramini 1, 35137 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>info@casaalcarmine.it, info@casaalcarmine.itContact</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>+39 328 9613480</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Art Hotel Al Fagiano</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/al-fagiano.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Via A.Locatelli 45, 35123 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>enEmailinfo@alfagiano.com, 8753396info@alfagiano.comIscrizione, info@alfagiano.com</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>+39 049 8753396, +39 049 875 00 73</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Albergo Verdi</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/albergo-verdi.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Via Dondi Dall'Orologio, 7, 35139 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>info@albergoverdipadova.itWebsite, info@hotelpatavium.itWebsite, info@diamantino.itWebsite, info@hoteleuropapd.it, booking@hotelgranditalia.itWebsite, info@hotelalcason.comWebsite, info@hoteldonatello.net, info@alfagiano.comWebsite, majestic@toscanelli.com, info@casadelpellegrino.comWebsite, info@eriklanger.it, info@hoteledenpadova.itWebsite, info@abanoverdi.com, info@hotelsantantonio.it, info@lecampsuite.it, alsanto@alsanto.itWebsite, info@hotelmilano-padova.itWebsite</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 049 8728372, +39 049 661200 - , +39 049 876 0025, +39 049 661508, +39 0498239711 - , +39 049 8751393, +39 049 8750073 - , +39 049 723698 - , +39 049 8750850, +39 049 490 7674 - , +39 049 8364163 - , +39 049 8752131, +39 049 66 76 00
+, +39 049 8239780, +39 049 8750634, +39 0498713923, +39 049 8761111 - , +39 049 8753396, +39 049 8752154  - , +39 345 5835616, +39 049 875 6656, +39 331 808 3555 , +39 049 66 70 25
+, +39 049 663 244 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hotel Patavium</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/patavium.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Via Beato Pellegrino 106, 35137 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>support@flightbridge.com, 723698info@hotelpatavium.itVAT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 049 723698, +39 (049) 723698
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[Centrale]Moderno Monolocale a 10 passi dal centro</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/centrale-moderno-monolocale-a-10-passi-dal-centro.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Via San Pietro, 102, 35139 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Antica Casa Marsilio</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/antica-casa-marsilio.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Via Marsilio da Padova n.8, int. 7, 35122 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>satanchitta@gmail.it, satanchitta@gmail.com, prenota@satanchitta.it, 5794info@guidetoeurope.comFind</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 3288616067
+, +393406637316
+, +39) 3288616067
+, +393288616067
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>A UN PASSO DALL'OSPEDALE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/a-un-passo-dall-ospedale.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5 Via Gustavo Modena, 35121 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>protocollo.aopd@pecveneto.it, infopadovaguest@gmail.com, fisioterapia.riabilitazione@aopd.veneto.it, riabilitazione.ortopedica@aopd.veneto.it, medicinafisica.neuroscienze@unipd.it, protocollo.aopd@aopd.veneto.it, 95support@booked.net, riabilitazione.osa@aopd.veneto.it</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Scrovegni Room &amp; Breakfast</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/scrovegni-room-amp-breakfast.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Via Porciglia, 18, 35121 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>info@bebscrovegni.it, info@cappelladegliscrovegni.it, info@stayinveneto.com</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 049 661474
+      , +39 049 20 100 20 (, +390492010020		
+, +39 349 707 8482 , +39 049 661474 
+      , +39 049 2010020 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B&amp;B Loft Padova</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/b-amp-b-loft-padova-padova5.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Via Frà Giovanni Eremitano 12, 35138 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tulip Inn Padova</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/campanilehotelpadova.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=16&amp;hapos=16&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Corso Stati Uniti 54, 35127 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>info@tulipinnpadova.com, en-usEmailinfo@tulipinnpadova.com</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Best Western Plus Hotel Galileo Padova</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/galileo-padova.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=17&amp;hapos=17&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Via Venezia, 30, 35131 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>San Clemente guest house</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/san-clemente-guest-house.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=18&amp;hapos=18&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7 Via San Clemente, 35139 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Methis Hotel &amp; SPA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/methis-hotel-amp-spa.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=19&amp;hapos=19&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Riviera Paleocapa, 70, 35142 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>049-872-5135Webwww.methishotel.itEmailinfo@methishotel.com, commerciale@methishotel.it, info@methishotel.itHotel, 8725135info@methishotel.itwww.methishotel.it</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 049 8725135 - , +39 049 8725135, +39 049 8725555, +39 049 8725555 - </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Padua Center Urban Flat</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/padua-center-urban-flat.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=20&amp;hapos=20&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>75 Via Cesare Battisti, 35121 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>info@bottegadelturismo.com, info@turismopadova.it, info@yourbanflat.com</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+393938029345
+            , +39 049 651333 , +39 049651333 , +39 049 651333)
+, +39 049 5207415 </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Monolocale nell'antica zona del Ghetto.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/monolocale-nell-antica-zona-del-ghetto.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=21&amp;hapos=21&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>24 Via Obizzi, 35122 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>info@gostayy.com, info@servicedapartment.com</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>La Giuggiola</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/la-giuggiola-padova.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=22&amp;hapos=22&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9 Via Ivo Scapolo, 35124 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>info@liliumpasticceria.it, 1131086info@liliumpasticceria.itAperti, info@liliumpasticceria.itSiamo</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>+39 3311131086 , +39 331 1131086</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>[300metri dal DUOMO] Bilocale con Corte Privata</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/300metri-dal-duomo-bilocale-con-corte-privata.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=23&amp;hapos=23&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>45 Via Girolamo Frigimelica, 35139 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Residenza delle Farfalle-Tripla con bagno privato e Matrimoniale con bagno condiviso</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/residenza-delle-farfalle.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=24&amp;hapos=24&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Via Ezzelino il Balbo 3, 35141 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 351 7478450
+, +39 347 1414020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B&amp;B Hotel Padova</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Padova</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/accademiapalacepadova.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDXNlYXJjaF9wYWRvdmFIM1gEaOkBiAEBmAEJuAEXyAEM2AEB6AEB-AEDiAIBqAIDuAKp29m6BsACAdICJDBjNGNmZmFkLWEzYmYtNDk4Zi04NmUwLWYzYmU5MDUzODA5MdgCBeACAQ&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=25&amp;hapos=25&amp;sr_order=popularity&amp;srpvid=936f1d5481b2010e&amp;srepoch=1733717418&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Via del Pescarotto 39, 35131 Padova, Italy</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>g.fabiodisconzi@gmail.com, emailpadova@hotelbb.com</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+390497800233
+ , +39049776795
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Angel's Suite</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/angels-suite.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=1&amp;hapos=1&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4 Stradella dei Munari, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ca' San Marco</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/modern-convenient-bedroom-amp-bathroom-500m-to-center.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=2&amp;hapos=2&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Contrà San Marco, 13, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>privacy@sanmarcogroup.it</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 041 4569322
+, +39 041 5950153
+, +39 041 5711099
+, +39 041 85 20 527
+						</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Altea's Sweet Home in Piazza,Basilica Palladiana</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/alteas-sweet-home.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=3&amp;hapos=3&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>33 Contrà Santa Barbara, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>urp@comune.vicenza.it, iat@comune.vicenza.it, info@museodelgioiello.it, didattica.museivicenza@scatolacultura.itVisitors, basilicapalladiana@comune.vicenza.it, didattica.museivicenza@scatolacultura.it, vicenza@cert.comune.vicenza.it</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 0444 964380 , +39) 0444 221111
+, +39) 0444 545311
+, +39 340 6059128
+        , +39 340 6059128
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hotel Due Mori</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/due-mori-vicenza.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=4&amp;hapos=4&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Contrà Do Rode, 24/26, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>info@duemori.com, info@hotelduemori.com, info@hotelduemori.it</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 0424 471777
+, +39 049 9400200
+, +39 0424 476920
+, +39 0444 326127
+, +39 049 9401422
+, +39 0444 321886, +390424471777, +39 0424 471777 - , +39 0444 321886 </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Residenza Privata Pedrotti</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/residenza-pedrotti-vicenza.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=5&amp;hapos=5&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Galleria del Pozzo Rosso n. 4  Int. 2, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>contattaci@residenzapedrotti.it</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>iHOMES-Luxury Junior Suite vista Basilica Palladio</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/ovosodo-apartaments-in-basilica.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=6&amp;hapos=6&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>10 Piazza delle Erbe, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Blue Suite</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/blue-suite-vicenza.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=7&amp;hapos=7&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Contra' Porta Padova, 17, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>info@ghvhotel.com, spa@ghvhotel.com, info@hotelvicenzaistanbul.com</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+39 0444 149 7001 
+, +39 0444 149 7001, +39 333 238 6481						
+, +39 0444 149 70 05						
+							, +39 0444 149 7001
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MINI CONTRA' DEI SERVI - VICENZA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/mini-contra-39-dei-servi-vicenza.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=8&amp;hapos=8&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2 Contrà Oratorio dei Servi, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Charmant Palladio - Vicenza City Center</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/charmant-palladio-vicenza-city-center.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=9&amp;hapos=9&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13 Via Cesare Battisti, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Mini Contrà San Pietro</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/mini-contra-39-san-pietro.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=10&amp;hapos=10&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>55 Contrà San Pietro, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B&amp;B Vicenza San Rocco</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/b-amp-b-vicenza-san-rocco.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=11&amp;hapos=11&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Contra San Rocco 26, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>+39 320 142 47479</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Cuore della Città - Netflix Free</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/cuore-della-citta-netflix-free-clima.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=12&amp;hapos=12&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Contrà Mure Corpus Domini, 1, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Key Hotel</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/continental-vicenza.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=13&amp;hapos=13&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>V.Le G.G. Trissino 89, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>info@key-hotel.it, info@vicenzabooking.com</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>+39 0444-513319
+, +39 0444 505476  , +39 0444 96 43 79
+ , +39 0444-505476, +39 0444 96 43 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Casa Pallamaio Historic Center Vicenza</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/casa-pallamaio-historic-center-vicenza.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=14&amp;hapos=14&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from_sustainable_property_sr=1&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Contrà Mure Pallamaio, 41, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>La Casa di Leo</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Vicenza</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/hotel/it/la-casa-di-leo.en-gb.html?aid=304142&amp;label=gen173nr-1FCAQoggJCDnNlYXJjaF92aWNlbnphSDNYBGjpAYgBAZgBCbgBF8gBDNgBAegBAfgBA4gCAagCA7gC397ZugbAAgHSAiQzNWE3OWJmOC1lOGE3LTQwMTktYmU4Zi0zNDY3MzJkZTcwMGPYAgXgAgE&amp;ucfs=1&amp;arphpl=1&amp;group_adults=2&amp;req_adults=2&amp;no_rooms=1&amp;group_children=0&amp;req_children=0&amp;hpos=15&amp;hapos=15&amp;sr_order=popularity&amp;srpvid=a99e1e2fe5830021&amp;srepoch=1733717856&amp;from=searchresults</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Corso Padova 134, 36100 Vicenza, Italy</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>info@eosaps.org</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>+39 035 0400131
+, +39 035 0400130
+, +39 035 04 00 131
+, +39 035 04 00 130
+, +39 035 04 00 131, +39 035 04 00 130</t>
         </is>
       </c>
     </row>
